--- a/__repository/template_import/temp_are_emp.xlsx
+++ b/__repository/template_import/temp_are_emp.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Pengisian" sheetId="1" r:id="rId1"/>
+    <sheet name="Contoh Pengisian" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -54,6 +55,18 @@
   </si>
   <si>
     <t>TEMPLATE UPLOAD EMPLOYEE TO ACTIVITY (ARE)</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>801.01.00</t>
+  </si>
+  <si>
+    <t>KUDORI</t>
+  </si>
+  <si>
+    <t>TRISNO DUMADI, S.Sos</t>
   </si>
 </sst>
 </file>
@@ -133,10 +146,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J102"/>
+  <dimension ref="B2:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,27 +442,28 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:11" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="4" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,19 +480,22 @@
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -488,8 +505,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -499,8 +517,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -510,8 +529,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -521,8 +541,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -532,8 +553,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -543,8 +565,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -554,8 +577,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -565,8 +589,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -576,8 +601,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -587,8 +613,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -598,8 +625,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -609,8 +637,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -620,8 +649,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -631,8 +661,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -642,8 +673,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -653,8 +685,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -664,8 +697,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -675,8 +709,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -686,8 +721,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -697,8 +733,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -708,8 +745,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -719,8 +757,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -730,8 +769,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -741,8 +781,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -752,8 +793,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -763,8 +805,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -774,8 +817,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -785,8 +829,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -796,8 +841,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -807,8 +853,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -818,8 +865,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -829,8 +877,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -840,8 +889,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -851,8 +901,9 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -862,8 +913,9 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -873,8 +925,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -884,8 +937,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -895,8 +949,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -906,8 +961,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -917,8 +973,9 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -928,8 +985,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -939,8 +997,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -950,8 +1009,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -961,8 +1021,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -972,8 +1033,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -983,8 +1045,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -994,8 +1057,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1005,8 +1069,9 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1016,8 +1081,9 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1027,8 +1093,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1038,8 +1105,9 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1049,8 +1117,9 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1060,8 +1129,9 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1071,8 +1141,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1082,8 +1153,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1093,8 +1165,9 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1104,8 +1177,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1115,8 +1189,9 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1126,8 +1201,9 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1137,8 +1213,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1148,8 +1225,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1159,8 +1237,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1170,8 +1249,9 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1181,8 +1261,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1192,8 +1273,9 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1203,8 +1285,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1214,8 +1297,9 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1225,8 +1309,9 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1236,8 +1321,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1247,8 +1333,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1258,8 +1345,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1269,8 +1357,9 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1280,8 +1369,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1291,8 +1381,9 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1302,8 +1393,9 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1313,8 +1405,9 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1324,8 +1417,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1335,8 +1429,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1346,8 +1441,9 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1357,8 +1453,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1368,8 +1465,9 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1379,8 +1477,9 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1390,8 +1489,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -1401,8 +1501,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1412,8 +1513,9 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1423,8 +1525,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -1434,8 +1537,9 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -1445,8 +1549,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -1456,8 +1561,9 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -1467,100 +1573,170 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="K94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>540201690</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>58794100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>590902566</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50475700</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>540201690</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>58794100</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>590902566</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50475700</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>